--- a/matriz_corridas_experimento.xlsx
+++ b/matriz_corridas_experimento.xlsx
@@ -7159,7 +7159,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-14 19:56:37</t>
+          <t>2025-11-19 20:33:13</t>
         </is>
       </c>
     </row>
